--- a/Output/Tables/Model 1d.xlsx
+++ b/Output/Tables/Model 1d.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,18 +411,18 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.702</v>
+        <v>1.812</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.141612176583427</t>
+          <t>0.128615316640211</t>
         </is>
       </c>
       <c r="D2">
-        <v>0.1122362119518364</v>
+        <v>0.1037783132149098</v>
       </c>
       <c r="E2">
-        <v>112801</v>
+        <v>105495</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="G2">
-        <v>1.517371431339229</v>
+        <v>1.641284674761474</v>
       </c>
       <c r="H2">
-        <v>1.886628568660771</v>
+        <v>1.982715325238527</v>
       </c>
       <c r="I2">
         <v>38</v>
@@ -446,18 +446,18 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.251</v>
+        <v>-0.239</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.129266422209217</t>
+          <t>0.124838248068265</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.1086386803931621</v>
+        <v>0.1035949760193604</v>
       </c>
       <c r="E3">
-        <v>112801</v>
+        <v>105495</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.4297106292467517</v>
+        <v>-0.4094137355518479</v>
       </c>
       <c r="H3">
-        <v>-0.07228937075324826</v>
+        <v>-0.06858626444815205</v>
       </c>
       <c r="I3">
         <v>38</v>
@@ -481,18 +481,18 @@
         </is>
       </c>
       <c r="B4">
-        <v>-0.953</v>
+        <v>-0.892</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.119185203978157</t>
+          <t>-0.102597411262751</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.1418767403086466</v>
+        <v>0.1304675345844536</v>
       </c>
       <c r="E4">
-        <v>112801</v>
+        <v>105495</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="G4">
-        <v>-1.186387237807724</v>
+        <v>-1.106619094391426</v>
       </c>
       <c r="H4">
-        <v>-0.7196127621922762</v>
+        <v>-0.6773809056085739</v>
       </c>
       <c r="I4">
         <v>38</v>
@@ -516,18 +516,18 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.168</v>
+        <v>0.191</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.141612176583427</t>
+          <t>0.128615316640211</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.1942372976544909</v>
+        <v>0.1785053454107153</v>
       </c>
       <c r="E5">
-        <v>112801</v>
+        <v>105495</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="G5">
-        <v>-0.1515203546416375</v>
+        <v>-0.1026412932006267</v>
       </c>
       <c r="H5">
-        <v>0.4875203546416375</v>
+        <v>0.4846412932006267</v>
       </c>
       <c r="I5">
         <v>38</v>
@@ -547,22 +547,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lrscale:legacyLeft-Wing</t>
+          <t>age</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.623</v>
+        <v>-0.144</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.129266422209217</t>
+          <t>0.124838248068265</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.1370310184582008</v>
+        <v>0.01627118319622274</v>
       </c>
       <c r="E6">
-        <v>112801</v>
+        <v>105495</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="G6">
-        <v>0.3975839746362597</v>
+        <v>-0.1707660963577864</v>
       </c>
       <c r="H6">
-        <v>0.8484160253637403</v>
+        <v>-0.1172339036422136</v>
       </c>
       <c r="I6">
         <v>38</v>
@@ -582,35 +582,315 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>educ</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>0.305</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-0.102597411262751</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.00865563850457194</v>
+      </c>
+      <c r="E7">
+        <v>105495</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>0.2907614746599791</v>
+      </c>
+      <c r="H7">
+        <v>0.3192385253400208</v>
+      </c>
+      <c r="I7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>polint</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>-0.458</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.128615316640211</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>0.01004649655726492</v>
+      </c>
+      <c r="E8">
+        <v>105495</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>-0.4745264868367008</v>
+      </c>
+      <c r="H8">
+        <v>-0.4414735131632992</v>
+      </c>
+      <c r="I8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sexMale</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>0.014</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.124838248068265</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.005768771990899003</v>
+      </c>
+      <c r="E9">
+        <v>105495</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="G9">
+        <v>0.00451037007497114</v>
+      </c>
+      <c r="H9">
+        <v>0.02348962992502886</v>
+      </c>
+      <c r="I9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>surveyevs2008</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>-0.106</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-0.102597411262751</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0.008332330897955476</v>
+      </c>
+      <c r="E10">
+        <v>105495</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="G10">
+        <v>-0.1197066843271368</v>
+      </c>
+      <c r="H10">
+        <v>-0.09229331567286324</v>
+      </c>
+      <c r="I10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>surveywvs1994</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>-0.103</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.128615316640211</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0.01008306006889319</v>
+      </c>
+      <c r="E11">
+        <v>105495</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>-0.1195866338133293</v>
+      </c>
+      <c r="H11">
+        <v>-0.0864133661866707</v>
+      </c>
+      <c r="I11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>surveywvs1999</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>0.18</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.124838248068265</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0.01654601227902841</v>
+      </c>
+      <c r="E12">
+        <v>105495</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>0.1527818098009983</v>
+      </c>
+      <c r="H12">
+        <v>0.2072181901990017</v>
+      </c>
+      <c r="I12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>surveywvs2005</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>0.299</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-0.102597411262751</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.01099273797156308</v>
+      </c>
+      <c r="E13">
+        <v>105495</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="G13">
+        <v>0.2809169460367787</v>
+      </c>
+      <c r="H13">
+        <v>0.3170830539632212</v>
+      </c>
+      <c r="I13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>lrscale:legacyLeft-Wing</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>0.571</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.128615316640211</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.1307651844314123</v>
+      </c>
+      <c r="E14">
+        <v>105495</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="G14">
+        <v>0.3558912716103266</v>
+      </c>
+      <c r="H14">
+        <v>0.7861087283896733</v>
+      </c>
+      <c r="I14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>lrscale:legacyRight-Wing</t>
         </is>
       </c>
-      <c r="B7">
-        <v>-0.322</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-0.119185203978157</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>0.1878650541877792</v>
-      </c>
-      <c r="E7">
-        <v>112801</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Model 1d</t>
-        </is>
-      </c>
-      <c r="G7">
-        <v>-0.6310380141388968</v>
-      </c>
-      <c r="H7">
-        <v>-0.0129619858611032</v>
-      </c>
-      <c r="I7">
+      <c r="B15">
+        <v>-0.26</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.124838248068265</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.1790310012811109</v>
+      </c>
+      <c r="E15">
+        <v>105495</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>-0.5545059971074274</v>
+      </c>
+      <c r="H15">
+        <v>0.03450599710742741</v>
+      </c>
+      <c r="I15">
         <v>38</v>
       </c>
     </row>
